--- a/Jogos_do_Dia/2024-01-05_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-01-05_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="K2" t="n">
-        <v>3.74</v>
+        <v>3.5</v>
       </c>
       <c r="L2" t="n">
-        <v>3.61</v>
+        <v>3.1</v>
       </c>
       <c r="M2" t="n">
         <v>1.33</v>
@@ -718,10 +718,10 @@
         <v>4.12</v>
       </c>
       <c r="S2" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T2" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="U2" t="n">
         <v>1.67</v>
@@ -830,13 +830,13 @@
         <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="K3" t="n">
-        <v>3.79</v>
+        <v>3.4</v>
       </c>
       <c r="L3" t="n">
-        <v>4.13</v>
+        <v>3.2</v>
       </c>
       <c r="M3" t="n">
         <v>1.4</v>
@@ -857,10 +857,10 @@
         <v>3.42</v>
       </c>
       <c r="S3" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="T3" t="n">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="U3" t="n">
         <v>1.73</v>
@@ -972,10 +972,10 @@
         <v>1.5</v>
       </c>
       <c r="K4" t="n">
-        <v>3.9</v>
+        <v>4.25</v>
       </c>
       <c r="L4" t="n">
-        <v>5.2</v>
+        <v>4.75</v>
       </c>
       <c r="M4" t="n">
         <v>1.29</v>
@@ -996,10 +996,10 @@
         <v>4.75</v>
       </c>
       <c r="S4" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="T4" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="U4" t="n">
         <v>1.67</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="K5" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="L5" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="T5" t="n">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="K6" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="L6" t="n">
-        <v>4.6</v>
+        <v>4.15</v>
       </c>
       <c r="M6" t="n">
         <v>1.57</v>
@@ -1274,10 +1274,10 @@
         <v>2.5</v>
       </c>
       <c r="S6" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="T6" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="U6" t="n">
         <v>2.25</v>
@@ -1386,13 +1386,13 @@
         <v>3.1</v>
       </c>
       <c r="J7" t="n">
-        <v>2.25</v>
+        <v>2.36</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="L7" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="M7" t="n">
         <v>1.33</v>
@@ -1413,10 +1413,10 @@
         <v>3.92</v>
       </c>
       <c r="S7" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="T7" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="U7" t="n">
         <v>1.62</v>
@@ -1449,25 +1449,25 @@
         <v>2.4</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AL7" t="n">
         <v>1.64</v>
@@ -1482,10 +1482,10 @@
         <v>1.73</v>
       </c>
       <c r="AP7" t="n">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="8">
@@ -1525,13 +1525,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7</v>
+        <v>5.9</v>
       </c>
       <c r="K8" t="n">
-        <v>4.25</v>
+        <v>4.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1552,10 +1552,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>

--- a/Jogos_do_Dia/2024-01-05_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-01-05_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>1.97</v>
+        <v>2.14</v>
       </c>
       <c r="K2" t="n">
-        <v>3.5</v>
+        <v>2.78</v>
       </c>
       <c r="L2" t="n">
-        <v>3.1</v>
+        <v>3.57</v>
       </c>
       <c r="M2" t="n">
         <v>1.33</v>
@@ -721,7 +721,7 @@
         <v>1.75</v>
       </c>
       <c r="T2" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="U2" t="n">
         <v>1.67</v>
@@ -739,10 +739,10 @@
         <v>1.87</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AB2" t="n">
         <v>1.31</v>
@@ -830,10 +830,10 @@
         <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="K3" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L3" t="n">
         <v>3.2</v>
@@ -857,10 +857,10 @@
         <v>3.42</v>
       </c>
       <c r="S3" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="T3" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="U3" t="n">
         <v>1.73</v>
@@ -878,7 +878,7 @@
         <v>1.9</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AA3" t="n">
         <v>1</v>
@@ -969,13 +969,13 @@
         <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="K4" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="L4" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
         <v>1.29</v>
@@ -996,10 +996,10 @@
         <v>4.75</v>
       </c>
       <c r="S4" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="T4" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="U4" t="n">
         <v>1.67</v>
@@ -1017,10 +1017,10 @@
         <v>2.55</v>
       </c>
       <c r="Z4" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AB4" t="n">
         <v>1.68</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="K5" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="L5" t="n">
         <v>11</v>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="T5" t="n">
-        <v>2.55</v>
+        <v>2.69</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="K6" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
-        <v>4.15</v>
+        <v>4.6</v>
       </c>
       <c r="M6" t="n">
         <v>1.57</v>
@@ -1268,16 +1268,16 @@
         <v>6</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R6" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S6" t="n">
-        <v>2.7</v>
+        <v>2.28</v>
       </c>
       <c r="T6" t="n">
-        <v>1.45</v>
+        <v>1.63</v>
       </c>
       <c r="U6" t="n">
         <v>2.25</v>
@@ -1386,13 +1386,13 @@
         <v>3.1</v>
       </c>
       <c r="J7" t="n">
-        <v>2.36</v>
+        <v>2.15</v>
       </c>
       <c r="K7" t="n">
         <v>3.45</v>
       </c>
       <c r="L7" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="M7" t="n">
         <v>1.33</v>
@@ -1413,10 +1413,10 @@
         <v>3.92</v>
       </c>
       <c r="S7" t="n">
-        <v>1.7</v>
+        <v>1.56</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="U7" t="n">
         <v>1.62</v>
@@ -1525,13 +1525,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>5.9</v>
+        <v>6.25</v>
       </c>
       <c r="K8" t="n">
-        <v>4.4</v>
+        <v>4.77</v>
       </c>
       <c r="L8" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1552,10 +1552,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T8" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
